--- a/data-business-operation/src/test/java/com/centit/support/test/TestAnalyseDataset.xlsx
+++ b/data-business-operation/src/test/java/com/centit/support/test/TestAnalyseDataset.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
